--- a/数据整理/stocks/其他/301058-中粮工科.xlsx
+++ b/数据整理/stocks/其他/301058-中粮工科.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -773,7 +774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,17 +785,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -804,13 +825,331 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/301058-中粮工科.xlsx
+++ b/数据整理/stocks/其他/301058-中粮工科.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,37 +463,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -503,36 +483,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>900008</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中信证券稳健回报混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>55.26</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2212</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -541,226 +499,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000029</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国宏观策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.91</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1249</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>900078</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中信证券稳健回报混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>55.26</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0586</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010740</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇安核心价值混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0450</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006072</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>民生加银创新成长混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>83.29</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0374</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005357</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.95</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0326</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010741</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇安核心价值混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
+      <c r="D3" t="n">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +853,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +893,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.25</v>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1143,14 +931,226 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.53</v>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
